--- a/data/Keywords_BS.XLSX
+++ b/data/Keywords_BS.XLSX
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10113"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/prasingh/Prashant/Prashant/CareerBuilder/Extraction/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BBD5476-16B2-3E4E-B4C0-DA0C237CE45A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A571FD7F-EEFD-5248-B711-5FE621C26D11}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10340" yWindow="12020" windowWidth="20120" windowHeight="8020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10000" yWindow="1920" windowWidth="23540" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="106">
   <si>
     <t>payroll</t>
   </si>
@@ -214,9 +214,6 @@
     <t>Bank Payment</t>
   </si>
   <si>
-    <t>Autopay</t>
-  </si>
-  <si>
     <t>Keywords for average daily balance</t>
   </si>
   <si>
@@ -251,13 +248,115 @@
   </si>
   <si>
     <t>ACH Pmt</t>
+  </si>
+  <si>
+    <t>Federal Benefit Deposit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR Payment </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACH Settlement </t>
+  </si>
+  <si>
+    <t>ACH Credit</t>
+  </si>
+  <si>
+    <t>DES:RET NET</t>
+  </si>
+  <si>
+    <t>Emp Svc</t>
+  </si>
+  <si>
+    <t>Payables</t>
+  </si>
+  <si>
+    <t>PAYRLL DEP</t>
+  </si>
+  <si>
+    <t>CARDMEMBER SERV</t>
+  </si>
+  <si>
+    <t>MASTERCARD Bill Payment</t>
+  </si>
+  <si>
+    <t>CARDS Bill Payment</t>
+  </si>
+  <si>
+    <t>CREDIT Bill Payment</t>
+  </si>
+  <si>
+    <t>Cred Card Payment</t>
+  </si>
+  <si>
+    <t>FEDLOAN</t>
+  </si>
+  <si>
+    <t>Mtg Pymt</t>
+  </si>
+  <si>
+    <t>mortgage payment</t>
+  </si>
+  <si>
+    <t>Loan Pmt</t>
+  </si>
+  <si>
+    <t>Loan Servicing</t>
+  </si>
+  <si>
+    <t>Pl Pymt</t>
+  </si>
+  <si>
+    <t>Ln Srv</t>
+  </si>
+  <si>
+    <t>Studntloan</t>
+  </si>
+  <si>
+    <t>student loan</t>
+  </si>
+  <si>
+    <t>Loan Srvc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average ledger balance </t>
+  </si>
+  <si>
+    <t>Keywords for Beginning balance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beginning balance </t>
+  </si>
+  <si>
+    <t>keywords for withdrawl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATM and debit card subtractions </t>
+  </si>
+  <si>
+    <t>Other subtractions</t>
+  </si>
+  <si>
+    <t>Checks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Service fees </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATM &amp; Debit Card Withdrawals </t>
+  </si>
+  <si>
+    <t>Electronic Withdrawals</t>
+  </si>
+  <si>
+    <t>Fees</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -326,6 +425,34 @@
       <color theme="1"/>
       <name val="CIDFont+F2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color theme="1"/>
+      <name val="MicrosoftSansSerif"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -347,7 +474,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -381,11 +508,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -400,6 +542,11 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -738,10 +885,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I42"/>
+  <dimension ref="A1:K75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -752,9 +899,12 @@
     <col min="6" max="6" width="18.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="24.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="24" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.6640625" customWidth="1"/>
+    <col min="10" max="10" width="46.83203125" customWidth="1"/>
+    <col min="11" max="11" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:11">
       <c r="A1" s="2" t="s">
         <v>25</v>
       </c>
@@ -776,10 +926,16 @@
         <v>36</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
+        <v>60</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -801,12 +957,18 @@
         <v>38</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>61</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
@@ -820,10 +982,13 @@
         <v>31</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>62</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -838,8 +1003,14 @@
       <c r="F4" s="5" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="I4" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -854,8 +1025,11 @@
       <c r="F5" s="6" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="K5" s="9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -870,8 +1044,11 @@
       <c r="F6" s="9" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="7" spans="1:9">
+      <c r="K6" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -884,8 +1061,11 @@
         <v>41</v>
       </c>
       <c r="F7" s="13"/>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="K7" s="5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
@@ -897,8 +1077,11 @@
       <c r="E8" s="10" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="9" spans="1:9">
+      <c r="K8" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -911,7 +1094,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
@@ -924,7 +1107,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
@@ -937,7 +1120,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
@@ -950,7 +1133,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
@@ -963,7 +1146,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:11">
       <c r="A14" s="1" t="s">
         <v>11</v>
       </c>
@@ -976,7 +1159,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:11">
       <c r="A15" s="1" t="s">
         <v>12</v>
       </c>
@@ -989,7 +1172,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
@@ -998,13 +1181,11 @@
         <v>17</v>
       </c>
       <c r="D16" s="1"/>
-      <c r="E16" s="1" t="s">
-        <v>60</v>
-      </c>
+      <c r="E16" s="1"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1" t="s">
@@ -1012,18 +1193,16 @@
       </c>
       <c r="D17" s="1"/>
       <c r="E17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="C18" s="1"/>
       <c r="E18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1033,6 +1212,9 @@
       <c r="C19" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="E19" s="16" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="1" t="s">
@@ -1041,6 +1223,9 @@
       <c r="C20" t="s">
         <v>52</v>
       </c>
+      <c r="E20" s="16" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="1" t="s">
@@ -1049,6 +1234,9 @@
       <c r="C21" s="1" t="s">
         <v>53</v>
       </c>
+      <c r="E21" s="16" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="1" t="s">
@@ -1057,6 +1245,9 @@
       <c r="C22" s="1" t="s">
         <v>54</v>
       </c>
+      <c r="E22" s="16" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="1" t="s">
@@ -1065,6 +1256,9 @@
       <c r="C23" s="1" t="s">
         <v>55</v>
       </c>
+      <c r="E23" s="15" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="1" t="s">
@@ -1073,13 +1267,19 @@
       <c r="C24" s="1" t="s">
         <v>56</v>
       </c>
+      <c r="E24" s="16" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>72</v>
+        <v>71</v>
+      </c>
+      <c r="E25" s="16" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1089,6 +1289,7 @@
       <c r="C26" t="s">
         <v>34</v>
       </c>
+      <c r="E26" s="16"/>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="1" t="s">
@@ -1097,6 +1298,9 @@
       <c r="C27" t="s">
         <v>52</v>
       </c>
+      <c r="E27" s="16" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="1" t="s">
@@ -1105,75 +1309,323 @@
       <c r="C28" t="s">
         <v>18</v>
       </c>
+      <c r="E28" s="16" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="C29" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E29" s="17" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="1" t="s">
         <v>43</v>
       </c>
+      <c r="C30" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E30" s="16" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="1" t="s">
         <v>44</v>
       </c>
+      <c r="C31" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E31" s="16" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="33" spans="1:1">
+      <c r="C32" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E32" s="16" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="34" spans="1:1">
+      <c r="C33" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E33" s="16" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="35" spans="1:1">
+      <c r="C34" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="E34" s="16" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="36" spans="1:1">
+      <c r="C35" s="16"/>
+      <c r="E35" s="15" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="37" spans="1:1">
+      <c r="C36" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="E36" s="15" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
       <c r="A37" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="38" spans="1:1">
+      <c r="C37" s="15" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
       <c r="A38" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="39" spans="1:1">
+      <c r="C38" s="16" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
       <c r="A39" s="12" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1">
+        <v>63</v>
+      </c>
+      <c r="C39" s="16" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
       <c r="A40" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C40" s="16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="4" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="41" spans="1:1">
-      <c r="A41" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1">
+      <c r="C41" s="16" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
       <c r="A42" t="s">
+        <v>70</v>
+      </c>
+      <c r="C42" s="16" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C43" s="16" t="s">
         <v>71</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="14"/>
+      <c r="C44" s="16" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C45" s="15" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C46" s="15" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C47" s="15" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C48" s="16" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" s="14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" s="14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" s="14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" s="14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" s="14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" s="14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" s="14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" s="14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" s="14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" s="14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" s="14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" s="14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" s="14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" s="14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" s="14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" s="14" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" s="14" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" s="14" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" s="15" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" s="15" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" s="15" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" s="15" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" s="15" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" s="15" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" s="15" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" s="15" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/data/Keywords_BS.XLSX
+++ b/data/Keywords_BS.XLSX
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/prasingh/Prashant/Prashant/CareerBuilder/Extraction/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/prasingh/Prashant/Prashant/CareerBuilder/ExtractionCode/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A571FD7F-EEFD-5248-B711-5FE621C26D11}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6970A6DA-E423-C74A-BDC0-4E8CDEDFA69E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10000" yWindow="1920" windowWidth="23540" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029" calcOnSave="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="107">
   <si>
     <t>payroll</t>
   </si>
@@ -350,6 +350,9 @@
   </si>
   <si>
     <t>Fees</t>
+  </si>
+  <si>
+    <t>Average collected balance</t>
   </si>
 </sst>
 </file>
@@ -888,7 +891,7 @@
   <dimension ref="A1:K75"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -1024,6 +1027,9 @@
       </c>
       <c r="F5" s="6" t="s">
         <v>33</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>106</v>
       </c>
       <c r="K5" s="9" t="s">
         <v>102</v>

--- a/data/Keywords_BS.XLSX
+++ b/data/Keywords_BS.XLSX
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/prasingh/Prashant/Prashant/CareerBuilder/ExtractionCode/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6970A6DA-E423-C74A-BDC0-4E8CDEDFA69E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08746DB6-72C8-E342-8AED-BD10EEC1F75E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10000" yWindow="1920" windowWidth="23540" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="109">
   <si>
     <t>payroll</t>
   </si>
@@ -353,6 +353,12 @@
   </si>
   <si>
     <t>Average collected balance</t>
+  </si>
+  <si>
+    <t>Dir Dep</t>
+  </si>
+  <si>
+    <t>Average Account Balance</t>
   </si>
 </sst>
 </file>
@@ -890,8 +896,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -1050,6 +1056,9 @@
       <c r="F6" s="9" t="s">
         <v>40</v>
       </c>
+      <c r="I6" s="5" t="s">
+        <v>108</v>
+      </c>
       <c r="K6" s="5" t="s">
         <v>103</v>
       </c>
@@ -1462,7 +1471,9 @@
       </c>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44" s="14"/>
+      <c r="A44" s="14" t="s">
+        <v>107</v>
+      </c>
       <c r="C44" s="16" t="s">
         <v>81</v>
       </c>

--- a/data/Keywords_BS.XLSX
+++ b/data/Keywords_BS.XLSX
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/prasingh/Prashant/Prashant/CareerBuilder/ExtractionCode/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08746DB6-72C8-E342-8AED-BD10EEC1F75E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF7C0D1B-6158-4947-AB5B-C32873937315}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10000" yWindow="1920" windowWidth="23540" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="116">
   <si>
     <t>payroll</t>
   </si>
@@ -118,9 +118,6 @@
     <t>Keywords for Loan Payment</t>
   </si>
   <si>
-    <t>iloan</t>
-  </si>
-  <si>
     <t>Keywords for deposits</t>
   </si>
   <si>
@@ -136,9 +133,6 @@
     <t>Deposits / Credits</t>
   </si>
   <si>
-    <t>credit card</t>
-  </si>
-  <si>
     <t>Keywords for account number</t>
   </si>
   <si>
@@ -151,18 +145,9 @@
     <t xml:space="preserve">Routing Number (RTN): </t>
   </si>
   <si>
-    <t xml:space="preserve">Credit Crd </t>
-  </si>
-  <si>
     <t xml:space="preserve">Deposits and other additions </t>
   </si>
   <si>
-    <t>loan pmt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LoanPymnt </t>
-  </si>
-  <si>
     <t>fees</t>
   </si>
   <si>
@@ -226,27 +211,9 @@
     <t>Coll Deposit</t>
   </si>
   <si>
-    <t>Stdnt Loan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dir Dep </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Transp Credit </t>
-  </si>
-  <si>
-    <t>Loan/Line Auto Pay</t>
-  </si>
-  <si>
-    <t>Payrll Dep</t>
-  </si>
-  <si>
     <t>Direct Dep</t>
   </si>
   <si>
-    <t>diredt deposit</t>
-  </si>
-  <si>
     <t>ACH Pmt</t>
   </si>
   <si>
@@ -359,13 +326,67 @@
   </si>
   <si>
     <t>Average Account Balance</t>
+  </si>
+  <si>
+    <t>keywords for direct dep</t>
+  </si>
+  <si>
+    <t>DIRECT DEPOSITS</t>
+  </si>
+  <si>
+    <t>DIRECT DEPOSIT</t>
+  </si>
+  <si>
+    <t>pay</t>
+  </si>
+  <si>
+    <t>Card Online Payment</t>
+  </si>
+  <si>
+    <t>Discover E-Payment</t>
+  </si>
+  <si>
+    <t>Pymt C</t>
+  </si>
+  <si>
+    <t>Credit Crd Epay</t>
+  </si>
+  <si>
+    <t>CRD ACH</t>
+  </si>
+  <si>
+    <t>Autopay</t>
+  </si>
+  <si>
+    <t>Lending Club</t>
+  </si>
+  <si>
+    <t>Exclude Keywords</t>
+  </si>
+  <si>
+    <t>Bill Pay</t>
+  </si>
+  <si>
+    <t>CHECKCARD</t>
+  </si>
+  <si>
+    <t>Card Purchase</t>
+  </si>
+  <si>
+    <t>Investing Transfer</t>
+  </si>
+  <si>
+    <t>Insurance Pay</t>
+  </si>
+  <si>
+    <t>Bill Payment</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -420,11 +441,6 @@
     </font>
     <font>
       <sz val="9"/>
-      <color theme="1"/>
-      <name val="Connections"/>
-    </font>
-    <font>
-      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Tahoma"/>
       <family val="2"/>
@@ -435,35 +451,49 @@
       <name val="CIDFont+F2"/>
     </font>
     <font>
+      <sz val="7"/>
+      <color theme="1"/>
+      <name val="MicrosoftSansSerif"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF6A8759"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="7"/>
-      <color theme="1"/>
-      <name val="MicrosoftSansSerif"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -482,8 +512,20 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor rgb="FF00B050"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FFFF0000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -532,11 +574,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -549,13 +602,17 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -894,755 +951,527 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K75"/>
+  <dimension ref="A1:M37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33:A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.1640625" customWidth="1"/>
+    <col min="3" max="3" width="28" customWidth="1"/>
+    <col min="5" max="5" width="22.83203125" customWidth="1"/>
     <col min="6" max="6" width="18.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="24.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="24" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="26.6640625" customWidth="1"/>
     <col min="10" max="10" width="46.83203125" customWidth="1"/>
     <col min="11" max="11" width="24" customWidth="1"/>
+    <col min="13" max="13" width="16.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:13" ht="16">
+      <c r="A1" s="14" t="s">
         <v>25</v>
       </c>
       <c r="B1" s="2"/>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="14" t="s">
         <v>26</v>
       </c>
       <c r="D1" s="2"/>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="14" t="s">
         <v>27</v>
       </c>
       <c r="F1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="M1" s="20" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G2" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H2" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I2" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="L2" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="M2" s="17" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="L3" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="M3" s="17" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="L4" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="M4" s="17" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="L5" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="M5" s="17" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="L6" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="M6" s="17" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="F7" s="11"/>
+      <c r="K7" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="L7" s="13"/>
+      <c r="M7" s="17" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="L8" s="13"/>
+      <c r="M8" s="17"/>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="L9" s="13"/>
+      <c r="M9" s="15"/>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="M10" s="15"/>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="M11" s="15"/>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="M12" s="15"/>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="M13" s="15"/>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="M14" s="15"/>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="D15" s="1"/>
+      <c r="E15" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="M15" s="15"/>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="D16" s="1"/>
+      <c r="E16" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="M16" s="15"/>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" s="1"/>
+      <c r="C17" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="D17" s="1"/>
+      <c r="E17" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="M17" s="15"/>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="E18" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="M18" s="15"/>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="E19" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="M19" s="15"/>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="E20" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="M20" s="15"/>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="E21" s="15"/>
+      <c r="M21" s="15"/>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="E22" s="15"/>
+      <c r="M22" s="15"/>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="E23" s="15"/>
+      <c r="M23" s="15"/>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="C24" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="E24" s="15"/>
+      <c r="M24" s="15"/>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="C25" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="E25" s="15"/>
+      <c r="M25" s="15"/>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="C26" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="E26" s="15"/>
+      <c r="M26" s="15"/>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" s="17" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" s="17" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29" s="17" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30" s="17" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" s="17" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32" s="17" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="K1" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="I2" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="J2" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="K2" s="9" t="s">
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="13" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
-      <c r="A3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="I3" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="K3" s="9" t="s">
+    <row r="36" spans="1:1">
+      <c r="A36" s="13" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="I4" s="18" t="s">
-        <v>95</v>
-      </c>
-      <c r="K4" s="9" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="K5" s="9" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="K6" s="5" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F7" s="13"/>
-      <c r="K7" s="5" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="K8" s="5" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="4" t="s">
+    <row r="37" spans="1:1">
+      <c r="A37" s="16" t="s">
         <v>39</v>
-      </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" s="1"/>
-      <c r="E13" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="A15" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="A16" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" t="s">
-        <v>69</v>
-      </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D17" s="1"/>
-      <c r="E17" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C18" s="1"/>
-      <c r="E18" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E19" s="16" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C20" t="s">
-        <v>52</v>
-      </c>
-      <c r="E20" s="16" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E21" s="16" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E22" s="16" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E23" s="15" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E24" s="16" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C25" t="s">
-        <v>71</v>
-      </c>
-      <c r="E25" s="16" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C26" t="s">
-        <v>34</v>
-      </c>
-      <c r="E26" s="16"/>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C27" t="s">
-        <v>52</v>
-      </c>
-      <c r="E27" s="16" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C28" t="s">
-        <v>18</v>
-      </c>
-      <c r="E28" s="16" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C29" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="E29" s="17" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C30" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="E30" s="16" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C31" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="E31" s="16" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C32" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="E32" s="16" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C33" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="E33" s="16" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C34" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="E34" s="16" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C35" s="16"/>
-      <c r="E35" s="15" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C36" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="E36" s="15" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C37" s="15" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C38" s="16" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="C39" s="16" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="A40" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C40" s="16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="A41" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C41" s="16" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="A42" t="s">
-        <v>70</v>
-      </c>
-      <c r="C42" s="16" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
-      <c r="A43" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C43" s="16" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
-      <c r="A44" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="C44" s="16" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
-      <c r="A45" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C45" s="15" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
-      <c r="A46" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="C46" s="15" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
-      <c r="A47" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="C47" s="15" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
-      <c r="A48" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="C48" s="16" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1">
-      <c r="A49" s="14" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1">
-      <c r="A50" s="14" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1">
-      <c r="A51" s="14" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1">
-      <c r="A52" s="14" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1">
-      <c r="A53" s="14" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1">
-      <c r="A54" s="14" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1">
-      <c r="A55" s="14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1">
-      <c r="A56" s="14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1">
-      <c r="A57" s="14" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1">
-      <c r="A58" s="14" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1">
-      <c r="A59" s="14" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1">
-      <c r="A60" s="14" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1">
-      <c r="A61" s="14" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1">
-      <c r="A62" s="14" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1">
-      <c r="A63" s="14" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1">
-      <c r="A64" s="14" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1">
-      <c r="A65" s="14" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1">
-      <c r="A66" s="14" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1">
-      <c r="A67" s="14" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1">
-      <c r="A68" s="15" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1">
-      <c r="A69" s="15" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1">
-      <c r="A70" s="15" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1">
-      <c r="A71" s="15" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1">
-      <c r="A72" s="15" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1">
-      <c r="A73" s="15" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1">
-      <c r="A74" s="15" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1">
-      <c r="A75" s="15" t="s">
-        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/data/Keywords_BS.XLSX
+++ b/data/Keywords_BS.XLSX
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10308"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/prasingh/Prashant/Prashant/CareerBuilder/ExtractionCode/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF7C0D1B-6158-4947-AB5B-C32873937315}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5CC6DA7-5AA8-784D-BDB3-A436113E0329}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10000" yWindow="1920" windowWidth="23540" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6720" yWindow="2300" windowWidth="23540" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="127">
   <si>
     <t>payroll</t>
   </si>
@@ -380,13 +380,46 @@
   </si>
   <si>
     <t>Bill Payment</t>
+  </si>
+  <si>
+    <t>Autopay Keywords</t>
+  </si>
+  <si>
+    <t>Crd Autopay</t>
+  </si>
+  <si>
+    <t>Chase ACH</t>
+  </si>
+  <si>
+    <t>ACH Btot</t>
+  </si>
+  <si>
+    <t>ACH Debitach</t>
+  </si>
+  <si>
+    <t>Debitach</t>
+  </si>
+  <si>
+    <t>Recurring Pay</t>
+  </si>
+  <si>
+    <t>AutoLoan Keywords</t>
+  </si>
+  <si>
+    <t>Auto Draft</t>
+  </si>
+  <si>
+    <t>ACH Telecheck</t>
+  </si>
+  <si>
+    <t xml:space="preserve">average daily balance of qualifying linked deposits and investments was </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -491,6 +524,18 @@
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="6">
@@ -589,7 +634,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -613,6 +658,9 @@
     <xf numFmtId="0" fontId="17" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -951,10 +999,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M37"/>
+  <dimension ref="A1:O37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33:A37"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -969,9 +1017,11 @@
     <col min="10" max="10" width="46.83203125" customWidth="1"/>
     <col min="11" max="11" width="24" customWidth="1"/>
     <col min="13" max="13" width="16.6640625" customWidth="1"/>
+    <col min="14" max="14" width="17.33203125" customWidth="1"/>
+    <col min="15" max="15" width="15.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="16">
+    <row r="1" spans="1:15" ht="16">
       <c r="A1" s="14" t="s">
         <v>25</v>
       </c>
@@ -1007,8 +1057,14 @@
       <c r="M1" s="20" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="O1" s="22" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="15" t="s">
         <v>0</v>
       </c>
@@ -1044,8 +1100,14 @@
       <c r="M2" s="17" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="N2" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="O2" s="17" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="15" t="s">
         <v>101</v>
       </c>
@@ -1072,8 +1134,14 @@
       <c r="M3" s="17" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="N3" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="O3" s="17" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="15" t="s">
         <v>1</v>
       </c>
@@ -1100,8 +1168,14 @@
       <c r="M4" s="17" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="O4" s="17" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="15" t="s">
         <v>2</v>
       </c>
@@ -1128,8 +1202,14 @@
       <c r="M5" s="17" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="N5" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="O5" s="23" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="15" t="s">
         <v>3</v>
       </c>
@@ -1156,8 +1236,12 @@
       <c r="M6" s="17" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="N6" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="O6" s="15"/>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="15" t="s">
         <v>4</v>
       </c>
@@ -1170,6 +1254,9 @@
         <v>53</v>
       </c>
       <c r="F7" s="11"/>
+      <c r="I7" s="5" t="s">
+        <v>126</v>
+      </c>
       <c r="K7" s="5" t="s">
         <v>93</v>
       </c>
@@ -1177,8 +1264,12 @@
       <c r="M7" s="17" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="O7" s="15"/>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="15" t="s">
         <v>5</v>
       </c>
@@ -1195,8 +1286,12 @@
       </c>
       <c r="L8" s="13"/>
       <c r="M8" s="17"/>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="N8" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="O8" s="15"/>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="15" t="s">
         <v>6</v>
       </c>
@@ -1210,8 +1305,10 @@
       </c>
       <c r="L9" s="13"/>
       <c r="M9" s="15"/>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9" s="16"/>
+      <c r="O9" s="15"/>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="15" t="s">
         <v>7</v>
       </c>
@@ -1224,8 +1321,10 @@
         <v>74</v>
       </c>
       <c r="M10" s="15"/>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="N10" s="16"/>
+      <c r="O10" s="15"/>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="15" t="s">
         <v>8</v>
       </c>
@@ -1238,8 +1337,10 @@
         <v>75</v>
       </c>
       <c r="M11" s="15"/>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11" s="16"/>
+      <c r="O11" s="15"/>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="15" t="s">
         <v>9</v>
       </c>
@@ -1252,8 +1353,10 @@
         <v>76</v>
       </c>
       <c r="M12" s="15"/>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12" s="16"/>
+      <c r="O12" s="15"/>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="15" t="s">
         <v>10</v>
       </c>
@@ -1266,8 +1369,10 @@
         <v>77</v>
       </c>
       <c r="M13" s="15"/>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="N13" s="16"/>
+      <c r="O13" s="15"/>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="15" t="s">
         <v>11</v>
       </c>
@@ -1280,8 +1385,10 @@
         <v>78</v>
       </c>
       <c r="M14" s="15"/>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="N14" s="16"/>
+      <c r="O14" s="15"/>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="15" t="s">
         <v>12</v>
       </c>
@@ -1294,8 +1401,10 @@
         <v>79</v>
       </c>
       <c r="M15" s="15"/>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="N15" s="16"/>
+      <c r="O15" s="15"/>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="15" t="s">
         <v>38</v>
       </c>
@@ -1308,8 +1417,10 @@
         <v>80</v>
       </c>
       <c r="M16" s="15"/>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="N16" s="16"/>
+      <c r="O16" s="15"/>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="15" t="s">
         <v>40</v>
       </c>
@@ -1322,8 +1433,10 @@
         <v>81</v>
       </c>
       <c r="M17" s="15"/>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="N17" s="16"/>
+      <c r="O17" s="15"/>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="16" t="s">
         <v>41</v>
       </c>
@@ -1334,8 +1447,10 @@
         <v>82</v>
       </c>
       <c r="M18" s="15"/>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18" s="17"/>
+      <c r="O18" s="15"/>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="16" t="s">
         <v>42</v>
       </c>
@@ -1346,8 +1461,10 @@
         <v>83</v>
       </c>
       <c r="M19" s="15"/>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="N19" s="17"/>
+      <c r="O19" s="15"/>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="16" t="s">
         <v>43</v>
       </c>
@@ -1358,8 +1475,10 @@
         <v>108</v>
       </c>
       <c r="M20" s="15"/>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="N20" s="15"/>
+      <c r="O20" s="15"/>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="16" t="s">
         <v>44</v>
       </c>
@@ -1368,8 +1487,10 @@
       </c>
       <c r="E21" s="15"/>
       <c r="M21" s="15"/>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21" s="15"/>
+      <c r="O21" s="15"/>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="16" t="s">
         <v>45</v>
       </c>
@@ -1378,8 +1499,10 @@
       </c>
       <c r="E22" s="15"/>
       <c r="M22" s="15"/>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="N22" s="15"/>
+      <c r="O22" s="15"/>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="16" t="s">
         <v>46</v>
       </c>
@@ -1388,8 +1511,10 @@
       </c>
       <c r="E23" s="15"/>
       <c r="M23" s="15"/>
-    </row>
-    <row r="24" spans="1:13">
+      <c r="N23" s="15"/>
+      <c r="O23" s="15"/>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="16" t="s">
         <v>58</v>
       </c>
@@ -1398,8 +1523,10 @@
       </c>
       <c r="E24" s="15"/>
       <c r="M24" s="15"/>
-    </row>
-    <row r="25" spans="1:13">
+      <c r="N24" s="15"/>
+      <c r="O24" s="15"/>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="15" t="s">
         <v>61</v>
       </c>
@@ -1408,8 +1535,10 @@
       </c>
       <c r="E25" s="15"/>
       <c r="M25" s="15"/>
-    </row>
-    <row r="26" spans="1:13">
+      <c r="N25" s="15"/>
+      <c r="O25" s="15"/>
+    </row>
+    <row r="26" spans="1:15">
       <c r="A26" s="15" t="s">
         <v>62</v>
       </c>
@@ -1418,33 +1547,35 @@
       </c>
       <c r="E26" s="15"/>
       <c r="M26" s="15"/>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="15"/>
+      <c r="O26" s="15"/>
+    </row>
+    <row r="27" spans="1:15">
       <c r="A27" s="17" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:15">
       <c r="A28" s="17" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:15">
       <c r="A29" s="17" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:15">
       <c r="A30" s="17" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:15">
       <c r="A31" s="17" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32" spans="1:15">
       <c r="A32" s="17" t="s">
         <v>68</v>
       </c>
